--- a/Stato avanzamento settori PCB .xlsx
+++ b/Stato avanzamento settori PCB .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="97">
   <si>
     <t>Settore</t>
   </si>
@@ -178,18 +178,6 @@
   </si>
   <si>
     <t>F1</t>
-  </si>
-  <si>
-    <t>Pin uscita 12V_KEY</t>
-  </si>
-  <si>
-    <t>Pin uscita +12V</t>
-  </si>
-  <si>
-    <t>Pin uscita GND</t>
-  </si>
-  <si>
-    <t>Pin uscita GND per schermo VR ??</t>
   </si>
   <si>
     <t>Connettore D(j10)</t>
@@ -315,6 +303,18 @@
   </si>
   <si>
     <t>File MST-01A-a-CPL.csv</t>
+  </si>
+  <si>
+    <t>Pin ingresso 12V_KEY</t>
+  </si>
+  <si>
+    <t>Pin ingresso +12V</t>
+  </si>
+  <si>
+    <t>Pin ingresso GND</t>
+  </si>
+  <si>
+    <t>Pin ingresso GND per schermo VR</t>
   </si>
 </sst>
 </file>
@@ -747,47 +747,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -830,6 +789,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -839,16 +810,45 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1134,48 +1134,49 @@
   <dimension ref="A2:S126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B99" sqref="B99:O102"/>
+      <pane ySplit="5" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="65.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" style="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" style="27" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="9.140625" style="15"/>
+    <col min="9" max="9" width="12.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="16"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="59"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="23" t="s">
         <v>37</v>
       </c>
@@ -1186,16 +1187,16 @@
         <v>39</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
@@ -1205,7 +1206,7 @@
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="59"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -1221,7 +1222,7 @@
       <c r="O5" s="8"/>
     </row>
     <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="11"/>
@@ -1230,10 +1231,10 @@
         <v>40</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>83</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>40</v>
@@ -1247,7 +1248,7 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="33" t="s">
@@ -1256,11 +1257,11 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="37"/>
+        <v>77</v>
+      </c>
+      <c r="G8" s="66"/>
       <c r="H8" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
@@ -1271,7 +1272,7 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="11"/>
@@ -1280,9 +1281,9 @@
         <v>40</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="G9" s="67"/>
       <c r="H9" s="11" t="s">
         <v>40</v>
       </c>
@@ -1295,7 +1296,7 @@
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="46" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="12"/>
@@ -1304,10 +1305,10 @@
         <v>40</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>83</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>40</v>
@@ -1321,7 +1322,7 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="46" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="12"/>
@@ -1330,9 +1331,9 @@
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="37"/>
+        <v>83</v>
+      </c>
+      <c r="G11" s="66"/>
       <c r="H11" s="12" t="s">
         <v>40</v>
       </c>
@@ -1345,7 +1346,7 @@
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="46" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="12"/>
@@ -1354,9 +1355,9 @@
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="G12" s="67"/>
       <c r="H12" s="12" t="s">
         <v>40</v>
       </c>
@@ -1369,7 +1370,7 @@
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="47" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="13"/>
@@ -1378,10 +1379,10 @@
         <v>40</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>40</v>
@@ -1395,20 +1396,20 @@
       <c r="O13" s="5"/>
     </row>
     <row r="14" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="37"/>
+        <v>77</v>
+      </c>
+      <c r="G14" s="66"/>
       <c r="H14" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -1419,7 +1420,7 @@
       <c r="O14" s="5"/>
     </row>
     <row r="15" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="13"/>
@@ -1428,9 +1429,9 @@
         <v>40</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="G15" s="67"/>
       <c r="H15" s="13" t="s">
         <v>40</v>
       </c>
@@ -1443,7 +1444,7 @@
       <c r="O15" s="5"/>
     </row>
     <row r="16" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="46" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="12"/>
@@ -1452,10 +1453,10 @@
         <v>40</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="G16" s="68" t="s">
+        <v>83</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>40</v>
@@ -1469,7 +1470,7 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="12"/>
@@ -1478,9 +1479,9 @@
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="G17" s="67"/>
       <c r="H17" s="12" t="s">
         <v>40</v>
       </c>
@@ -1493,7 +1494,7 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="11"/>
@@ -1502,10 +1503,10 @@
         <v>40</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="G18" s="65" t="s">
+        <v>83</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>40</v>
@@ -1519,7 +1520,7 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="45" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
@@ -1528,9 +1529,9 @@
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="G19" s="67"/>
       <c r="H19" s="11" t="s">
         <v>40</v>
       </c>
@@ -1543,8 +1544,8 @@
       <c r="O19" s="6"/>
     </row>
     <row r="20" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="61" t="s">
-        <v>82</v>
+      <c r="B20" s="46" t="s">
+        <v>78</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -1555,7 +1556,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -1567,7 +1568,7 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="47" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="13"/>
@@ -1576,9 +1577,9 @@
         <v>40</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="69" t="s">
         <v>40</v>
       </c>
       <c r="H21" s="13" t="s">
@@ -1593,7 +1594,7 @@
       <c r="O21" s="5"/>
     </row>
     <row r="22" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="13"/>
@@ -1602,9 +1603,9 @@
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="G22" s="67"/>
       <c r="H22" s="13" t="s">
         <v>40</v>
       </c>
@@ -1617,7 +1618,7 @@
       <c r="O22" s="5"/>
     </row>
     <row r="23" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="12"/>
@@ -1626,10 +1627,10 @@
         <v>40</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="G23" s="68" t="s">
+        <v>83</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>40</v>
@@ -1643,7 +1644,7 @@
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="12"/>
@@ -1652,9 +1653,9 @@
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="G24" s="67"/>
       <c r="H24" s="12" t="s">
         <v>40</v>
       </c>
@@ -1667,7 +1668,7 @@
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="13"/>
@@ -1676,10 +1677,10 @@
         <v>40</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="G25" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>40</v>
@@ -1693,7 +1694,7 @@
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="13"/>
@@ -1702,9 +1703,9 @@
         <v>40</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="37"/>
+        <v>83</v>
+      </c>
+      <c r="G26" s="66"/>
       <c r="H26" s="13" t="s">
         <v>40</v>
       </c>
@@ -1717,7 +1718,7 @@
       <c r="O26" s="5"/>
     </row>
     <row r="27" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="47" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="13"/>
@@ -1726,9 +1727,9 @@
         <v>40</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="37"/>
+        <v>83</v>
+      </c>
+      <c r="G27" s="66"/>
       <c r="H27" s="13" t="s">
         <v>40</v>
       </c>
@@ -1741,7 +1742,7 @@
       <c r="O27" s="5"/>
     </row>
     <row r="28" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="13"/>
@@ -1750,9 +1751,9 @@
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="G28" s="67"/>
       <c r="H28" s="13" t="s">
         <v>40</v>
       </c>
@@ -1765,7 +1766,7 @@
       <c r="O28" s="5"/>
     </row>
     <row r="29" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="46" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="12"/>
@@ -1774,10 +1775,10 @@
         <v>40</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="G29" s="68" t="s">
+        <v>83</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>40</v>
@@ -1791,7 +1792,7 @@
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="46" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="12"/>
@@ -1800,9 +1801,9 @@
         <v>40</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="37"/>
+        <v>83</v>
+      </c>
+      <c r="G30" s="66"/>
       <c r="H30" s="12" t="s">
         <v>40</v>
       </c>
@@ -1815,7 +1816,7 @@
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="46" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="12"/>
@@ -1824,9 +1825,9 @@
         <v>40</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="37"/>
+        <v>83</v>
+      </c>
+      <c r="G31" s="66"/>
       <c r="H31" s="12" t="s">
         <v>40</v>
       </c>
@@ -1839,7 +1840,7 @@
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="12"/>
@@ -1848,9 +1849,9 @@
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="G32" s="67"/>
       <c r="H32" s="12" t="s">
         <v>40</v>
       </c>
@@ -1863,7 +1864,7 @@
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="47" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="13"/>
@@ -1872,10 +1873,10 @@
         <v>40</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="G33" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>40</v>
@@ -1889,7 +1890,7 @@
       <c r="O33" s="5"/>
     </row>
     <row r="34" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="47" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="13"/>
@@ -1898,9 +1899,9 @@
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="G34" s="67"/>
       <c r="H34" s="13" t="s">
         <v>40</v>
       </c>
@@ -1913,7 +1914,7 @@
       <c r="O34" s="5"/>
     </row>
     <row r="35" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="46" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="12"/>
@@ -1922,10 +1923,10 @@
         <v>40</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="40" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="G35" s="70" t="s">
+        <v>86</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>40</v>
@@ -1939,7 +1940,7 @@
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="46" t="s">
         <v>21</v>
       </c>
       <c r="C36" s="12"/>
@@ -1948,9 +1949,9 @@
         <v>40</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="41"/>
+        <v>83</v>
+      </c>
+      <c r="G36" s="71"/>
       <c r="H36" s="12" t="s">
         <v>40</v>
       </c>
@@ -1963,7 +1964,7 @@
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="12"/>
@@ -1972,9 +1973,9 @@
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="42"/>
+        <v>83</v>
+      </c>
+      <c r="G37" s="72"/>
       <c r="H37" s="12" t="s">
         <v>40</v>
       </c>
@@ -1987,7 +1988,7 @@
       <c r="O37" s="4"/>
     </row>
     <row r="38" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="47" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="13"/>
@@ -1996,10 +1997,10 @@
         <v>40</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" s="50" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="G38" s="73" t="s">
+        <v>86</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>40</v>
@@ -2013,7 +2014,7 @@
       <c r="O38" s="5"/>
     </row>
     <row r="39" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="47" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="13"/>
@@ -2022,9 +2023,9 @@
         <v>40</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" s="41"/>
+        <v>83</v>
+      </c>
+      <c r="G39" s="71"/>
       <c r="H39" s="13" t="s">
         <v>40</v>
       </c>
@@ -2037,7 +2038,7 @@
       <c r="O39" s="5"/>
     </row>
     <row r="40" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="13"/>
@@ -2046,9 +2047,9 @@
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G40" s="42"/>
+        <v>83</v>
+      </c>
+      <c r="G40" s="72"/>
       <c r="H40" s="13" t="s">
         <v>40</v>
       </c>
@@ -2061,7 +2062,7 @@
       <c r="O40" s="5"/>
     </row>
     <row r="41" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="12"/>
@@ -2070,10 +2071,10 @@
         <v>40</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" s="36" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="G41" s="68" t="s">
+        <v>83</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>40</v>
@@ -2087,7 +2088,7 @@
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="46" t="s">
         <v>23</v>
       </c>
       <c r="C42" s="12"/>
@@ -2096,9 +2097,9 @@
         <v>40</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G42" s="37"/>
+        <v>83</v>
+      </c>
+      <c r="G42" s="66"/>
       <c r="H42" s="12" t="s">
         <v>40</v>
       </c>
@@ -2111,7 +2112,7 @@
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C43" s="12"/>
@@ -2120,9 +2121,9 @@
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G43" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="G43" s="67"/>
       <c r="H43" s="12" t="s">
         <v>40</v>
       </c>
@@ -2135,8 +2136,8 @@
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="62" t="s">
-        <v>91</v>
+      <c r="B44" s="47" t="s">
+        <v>87</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2144,10 +2145,10 @@
         <v>40</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G44" s="39" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="G44" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>40</v>
@@ -2161,7 +2162,7 @@
       <c r="O44" s="5"/>
     </row>
     <row r="45" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="47" t="s">
         <v>50</v>
       </c>
       <c r="C45" s="13"/>
@@ -2170,9 +2171,9 @@
         <v>40</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="37"/>
+        <v>83</v>
+      </c>
+      <c r="G45" s="66"/>
       <c r="H45" s="13" t="s">
         <v>40</v>
       </c>
@@ -2185,7 +2186,7 @@
       <c r="O45" s="5"/>
     </row>
     <row r="46" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="47" t="s">
         <v>52</v>
       </c>
       <c r="C46" s="13"/>
@@ -2194,9 +2195,9 @@
         <v>40</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G46" s="37"/>
+        <v>83</v>
+      </c>
+      <c r="G46" s="66"/>
       <c r="H46" s="13" t="s">
         <v>40</v>
       </c>
@@ -2209,7 +2210,7 @@
       <c r="O46" s="5"/>
     </row>
     <row r="47" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="47" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="13"/>
@@ -2218,9 +2219,9 @@
         <v>40</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G47" s="37"/>
+        <v>83</v>
+      </c>
+      <c r="G47" s="66"/>
       <c r="H47" s="13" t="s">
         <v>40</v>
       </c>
@@ -2233,7 +2234,7 @@
       <c r="O47" s="5"/>
     </row>
     <row r="48" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C48" s="13"/>
@@ -2242,9 +2243,9 @@
         <v>40</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G48" s="37"/>
+        <v>83</v>
+      </c>
+      <c r="G48" s="66"/>
       <c r="H48" s="13" t="s">
         <v>40</v>
       </c>
@@ -2257,8 +2258,8 @@
       <c r="O48" s="5"/>
     </row>
     <row r="49" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="62" t="s">
-        <v>53</v>
+      <c r="B49" s="47" t="s">
+        <v>93</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13" t="s">
@@ -2266,10 +2267,12 @@
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G49" s="37"/>
-      <c r="H49" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="G49" s="66"/>
+      <c r="H49" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
@@ -2279,8 +2282,8 @@
       <c r="O49" s="5"/>
     </row>
     <row r="50" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="62" t="s">
-        <v>54</v>
+      <c r="B50" s="47" t="s">
+        <v>94</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13" t="s">
@@ -2288,10 +2291,12 @@
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G50" s="37"/>
-      <c r="H50" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="G50" s="66"/>
+      <c r="H50" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
@@ -2301,8 +2306,8 @@
       <c r="O50" s="5"/>
     </row>
     <row r="51" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="62" t="s">
-        <v>55</v>
+      <c r="B51" s="47" t="s">
+        <v>95</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13" t="s">
@@ -2310,10 +2315,12 @@
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G51" s="37"/>
-      <c r="H51" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="G51" s="66"/>
+      <c r="H51" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
@@ -2323,8 +2330,8 @@
       <c r="O51" s="5"/>
     </row>
     <row r="52" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="62" t="s">
-        <v>56</v>
+      <c r="B52" s="47" t="s">
+        <v>96</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13" t="s">
@@ -2332,10 +2339,12 @@
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G52" s="37"/>
-      <c r="H52" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="G52" s="66"/>
+      <c r="H52" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
@@ -2345,8 +2354,8 @@
       <c r="O52" s="5"/>
     </row>
     <row r="53" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="62" t="s">
-        <v>77</v>
+      <c r="B53" s="47" t="s">
+        <v>73</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13" t="s">
@@ -2354,10 +2363,12 @@
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G53" s="37"/>
-      <c r="H53" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="G53" s="66"/>
+      <c r="H53" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
@@ -2367,8 +2378,8 @@
       <c r="O53" s="5"/>
     </row>
     <row r="54" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="62" t="s">
-        <v>78</v>
+      <c r="B54" s="47" t="s">
+        <v>74</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13" t="s">
@@ -2376,10 +2387,12 @@
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G54" s="38"/>
-      <c r="H54" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="G54" s="67"/>
+      <c r="H54" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -2389,7 +2402,7 @@
       <c r="O54" s="5"/>
     </row>
     <row r="55" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="61" t="s">
+      <c r="B55" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C55" s="12"/>
@@ -2398,10 +2411,10 @@
         <v>40</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G55" s="36" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="G55" s="68" t="s">
+        <v>83</v>
       </c>
       <c r="H55" s="12" t="s">
         <v>40</v>
@@ -2415,7 +2428,7 @@
       <c r="O55" s="4"/>
     </row>
     <row r="56" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="12"/>
@@ -2424,9 +2437,9 @@
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G56" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="G56" s="67"/>
       <c r="H56" s="12" t="s">
         <v>40</v>
       </c>
@@ -2439,7 +2452,7 @@
       <c r="O56" s="4"/>
     </row>
     <row r="57" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="62" t="s">
+      <c r="B57" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="13"/>
@@ -2448,10 +2461,10 @@
         <v>40</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G57" s="39" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="G57" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="H57" s="13" t="s">
         <v>40</v>
@@ -2465,7 +2478,7 @@
       <c r="O57" s="5"/>
     </row>
     <row r="58" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="62" t="s">
+      <c r="B58" s="47" t="s">
         <v>24</v>
       </c>
       <c r="C58" s="13"/>
@@ -2474,9 +2487,9 @@
         <v>40</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G58" s="37"/>
+        <v>83</v>
+      </c>
+      <c r="G58" s="66"/>
       <c r="H58" s="13" t="s">
         <v>40</v>
       </c>
@@ -2489,8 +2502,8 @@
       <c r="O58" s="5"/>
     </row>
     <row r="59" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="62" t="s">
-        <v>83</v>
+      <c r="B59" s="47" t="s">
+        <v>79</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -2498,9 +2511,9 @@
         <v>40</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G59" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="G59" s="67"/>
       <c r="H59" s="13" t="s">
         <v>40</v>
       </c>
@@ -2513,7 +2526,7 @@
       <c r="O59" s="5"/>
     </row>
     <row r="60" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="61" t="s">
+      <c r="B60" s="46" t="s">
         <v>20</v>
       </c>
       <c r="C60" s="12"/>
@@ -2522,10 +2535,10 @@
         <v>40</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G60" s="30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H60" s="12" t="s">
         <v>40</v>
@@ -2539,7 +2552,7 @@
       <c r="O60" s="4"/>
     </row>
     <row r="61" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="62" t="s">
+      <c r="B61" s="47" t="s">
         <v>25</v>
       </c>
       <c r="C61" s="13"/>
@@ -2548,10 +2561,10 @@
         <v>40</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G61" s="39" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="G61" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="H61" s="13" t="s">
         <v>40</v>
@@ -2565,7 +2578,7 @@
       <c r="O61" s="5"/>
     </row>
     <row r="62" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="62" t="s">
+      <c r="B62" s="47" t="s">
         <v>26</v>
       </c>
       <c r="C62" s="13"/>
@@ -2574,9 +2587,9 @@
         <v>40</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G62" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="G62" s="67"/>
       <c r="H62" s="13" t="s">
         <v>40</v>
       </c>
@@ -2589,7 +2602,7 @@
       <c r="O62" s="5"/>
     </row>
     <row r="63" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="61" t="s">
+      <c r="B63" s="46" t="s">
         <v>27</v>
       </c>
       <c r="C63" s="12"/>
@@ -2598,10 +2611,10 @@
         <v>40</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G63" s="30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H63" s="12" t="s">
         <v>40</v>
@@ -2615,7 +2628,7 @@
       <c r="O63" s="4"/>
     </row>
     <row r="64" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="62" t="s">
+      <c r="B64" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C64" s="13"/>
@@ -2624,10 +2637,10 @@
         <v>40</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G64" s="31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H64" s="13" t="s">
         <v>40</v>
@@ -2641,8 +2654,8 @@
       <c r="O64" s="5"/>
     </row>
     <row r="65" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="61" t="s">
-        <v>63</v>
+      <c r="B65" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12" t="s">
@@ -2650,12 +2663,14 @@
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G65" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H65" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
@@ -2665,8 +2680,8 @@
       <c r="O65" s="4"/>
     </row>
     <row r="66" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="61" t="s">
-        <v>62</v>
+      <c r="B66" s="46" t="s">
+        <v>58</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12" t="s">
@@ -2674,12 +2689,14 @@
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G66" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H66" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
@@ -2689,8 +2706,8 @@
       <c r="O66" s="4"/>
     </row>
     <row r="67" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="61" t="s">
-        <v>58</v>
+      <c r="B67" s="46" t="s">
+        <v>54</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12" t="s">
@@ -2698,12 +2715,14 @@
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G67" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H67" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
@@ -2713,8 +2732,8 @@
       <c r="O67" s="4"/>
     </row>
     <row r="68" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="61" t="s">
-        <v>59</v>
+      <c r="B68" s="46" t="s">
+        <v>55</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12" t="s">
@@ -2722,12 +2741,14 @@
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G68" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H68" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
@@ -2737,8 +2758,8 @@
       <c r="O68" s="4"/>
     </row>
     <row r="69" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="61" t="s">
-        <v>60</v>
+      <c r="B69" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12" t="s">
@@ -2746,12 +2767,14 @@
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G69" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H69" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
@@ -2761,8 +2784,8 @@
       <c r="O69" s="4"/>
     </row>
     <row r="70" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="61" t="s">
-        <v>61</v>
+      <c r="B70" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="12" t="s">
@@ -2770,12 +2793,14 @@
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G70" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H70" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
@@ -2785,8 +2810,8 @@
       <c r="O70" s="4"/>
     </row>
     <row r="71" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="61" t="s">
-        <v>64</v>
+      <c r="B71" s="46" t="s">
+        <v>60</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12" t="s">
@@ -2794,12 +2819,14 @@
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G71" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H71" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
@@ -2809,8 +2836,8 @@
       <c r="O71" s="4"/>
     </row>
     <row r="72" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="61" t="s">
-        <v>65</v>
+      <c r="B72" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12" t="s">
@@ -2818,12 +2845,14 @@
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G72" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H72" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
@@ -2833,8 +2862,8 @@
       <c r="O72" s="4"/>
     </row>
     <row r="73" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="61" t="s">
-        <v>66</v>
+      <c r="B73" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12" t="s">
@@ -2842,12 +2871,14 @@
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G73" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H73" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
@@ -2857,8 +2888,8 @@
       <c r="O73" s="4"/>
     </row>
     <row r="74" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="61" t="s">
-        <v>67</v>
+      <c r="B74" s="46" t="s">
+        <v>63</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12" t="s">
@@ -2866,12 +2897,14 @@
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G74" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H74" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
@@ -2881,8 +2914,8 @@
       <c r="O74" s="4"/>
     </row>
     <row r="75" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="61" t="s">
-        <v>68</v>
+      <c r="B75" s="46" t="s">
+        <v>64</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="12" t="s">
@@ -2890,12 +2923,14 @@
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G75" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H75" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
@@ -2905,8 +2940,8 @@
       <c r="O75" s="4"/>
     </row>
     <row r="76" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="61" t="s">
-        <v>69</v>
+      <c r="B76" s="46" t="s">
+        <v>65</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12" t="s">
@@ -2914,12 +2949,14 @@
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G76" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H76" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
@@ -2929,8 +2966,8 @@
       <c r="O76" s="4"/>
     </row>
     <row r="77" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="61" t="s">
-        <v>70</v>
+      <c r="B77" s="46" t="s">
+        <v>66</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12" t="s">
@@ -2938,12 +2975,14 @@
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G77" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H77" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
@@ -2953,8 +2992,8 @@
       <c r="O77" s="4"/>
     </row>
     <row r="78" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="61" t="s">
-        <v>71</v>
+      <c r="B78" s="46" t="s">
+        <v>67</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12" t="s">
@@ -2962,12 +3001,14 @@
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G78" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H78" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
@@ -2977,8 +3018,8 @@
       <c r="O78" s="4"/>
     </row>
     <row r="79" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="61" t="s">
-        <v>72</v>
+      <c r="B79" s="46" t="s">
+        <v>68</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12" t="s">
@@ -2986,12 +3027,14 @@
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G79" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H79" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I79" s="12"/>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
@@ -3001,8 +3044,8 @@
       <c r="O79" s="4"/>
     </row>
     <row r="80" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="61" t="s">
-        <v>73</v>
+      <c r="B80" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="12" t="s">
@@ -3010,12 +3053,14 @@
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G80" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H80" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
@@ -3025,8 +3070,8 @@
       <c r="O80" s="4"/>
     </row>
     <row r="81" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="61" t="s">
-        <v>74</v>
+      <c r="B81" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="C81" s="12"/>
       <c r="D81" s="12" t="s">
@@ -3034,12 +3079,14 @@
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G81" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H81" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
@@ -3049,8 +3096,8 @@
       <c r="O81" s="4"/>
     </row>
     <row r="82" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="61" t="s">
-        <v>76</v>
+      <c r="B82" s="46" t="s">
+        <v>72</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="12" t="s">
@@ -3058,12 +3105,14 @@
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G82" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H82" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
@@ -3073,8 +3122,8 @@
       <c r="O82" s="4"/>
     </row>
     <row r="83" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="61" t="s">
-        <v>75</v>
+      <c r="B83" s="46" t="s">
+        <v>71</v>
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="12" t="s">
@@ -3082,12 +3131,14 @@
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G83" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H83" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
@@ -3097,7 +3148,7 @@
       <c r="O83" s="4"/>
     </row>
     <row r="84" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="62" t="s">
+      <c r="B84" s="47" t="s">
         <v>41</v>
       </c>
       <c r="C84" s="34" t="s">
@@ -3117,7 +3168,7 @@
       <c r="O84" s="5"/>
     </row>
     <row r="85" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="61" t="s">
+      <c r="B85" s="46" t="s">
         <v>42</v>
       </c>
       <c r="C85" s="35" t="s">
@@ -3137,7 +3188,7 @@
       <c r="O85" s="4"/>
     </row>
     <row r="86" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="62" t="s">
+      <c r="B86" s="47" t="s">
         <v>43</v>
       </c>
       <c r="C86" s="34" t="s">
@@ -3157,8 +3208,8 @@
       <c r="O86" s="5"/>
     </row>
     <row r="87" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="61" t="s">
-        <v>57</v>
+      <c r="B87" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="C87" s="35" t="s">
         <v>40</v>
@@ -3177,7 +3228,7 @@
       <c r="O87" s="4"/>
     </row>
     <row r="88" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="62" t="s">
+      <c r="B88" s="47" t="s">
         <v>44</v>
       </c>
       <c r="C88" s="34" t="s">
@@ -3197,7 +3248,7 @@
       <c r="O88" s="5"/>
     </row>
     <row r="89" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="61"/>
+      <c r="B89" s="46"/>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
@@ -3213,7 +3264,7 @@
       <c r="O89" s="4"/>
     </row>
     <row r="90" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="62"/>
+      <c r="B90" s="47"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
@@ -3229,7 +3280,7 @@
       <c r="O90" s="5"/>
     </row>
     <row r="91" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="61" t="s">
+      <c r="B91" s="46" t="s">
         <v>29</v>
       </c>
       <c r="C91" s="12"/>
@@ -3238,12 +3289,14 @@
         <v>40</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G91" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H91" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
@@ -3253,7 +3306,7 @@
       <c r="O91" s="4"/>
     </row>
     <row r="92" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="60" t="s">
+      <c r="B92" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C92" s="11"/>
@@ -3262,12 +3315,14 @@
         <v>40</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G92" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="H92" s="11"/>
+        <v>83</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="I92" s="11"/>
       <c r="J92" s="11"/>
       <c r="K92" s="11"/>
@@ -3278,7 +3333,7 @@
     </row>
     <row r="93" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
-      <c r="B93" s="61"/>
+      <c r="B93" s="46"/>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
@@ -3299,8 +3354,8 @@
     </row>
     <row r="94" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="22"/>
-      <c r="B94" s="62" t="s">
-        <v>84</v>
+      <c r="B94" s="47" t="s">
+        <v>80</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
@@ -3322,7 +3377,7 @@
     </row>
     <row r="95" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
-      <c r="B95" s="61"/>
+      <c r="B95" s="46"/>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
@@ -3343,7 +3398,7 @@
     </row>
     <row r="96" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="22"/>
-      <c r="B96" s="62" t="s">
+      <c r="B96" s="47" t="s">
         <v>45</v>
       </c>
       <c r="C96" s="13"/>
@@ -3366,7 +3421,7 @@
     </row>
     <row r="97" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="22"/>
-      <c r="B97" s="62"/>
+      <c r="B97" s="47"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
@@ -3387,20 +3442,20 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
-      <c r="B98" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="C98" s="71"/>
-      <c r="D98" s="72"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="72"/>
-      <c r="G98" s="73"/>
-      <c r="H98" s="72"/>
-      <c r="I98" s="72"/>
-      <c r="J98" s="72"/>
-      <c r="K98" s="72"/>
-      <c r="L98" s="72"/>
-      <c r="M98" s="72"/>
+      <c r="B98" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C98" s="53"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="54"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="54"/>
+      <c r="I98" s="54"/>
+      <c r="J98" s="54"/>
+      <c r="K98" s="54"/>
+      <c r="L98" s="54"/>
+      <c r="M98" s="54"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
       <c r="P98" s="8"/>
@@ -3410,20 +3465,20 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
-      <c r="B99" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="C99" s="71"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="72"/>
-      <c r="F99" s="72"/>
-      <c r="G99" s="73"/>
-      <c r="H99" s="72"/>
-      <c r="I99" s="72"/>
-      <c r="J99" s="72"/>
-      <c r="K99" s="72"/>
-      <c r="L99" s="72"/>
-      <c r="M99" s="72"/>
+      <c r="B99" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="53"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="54"/>
+      <c r="J99" s="54"/>
+      <c r="K99" s="54"/>
+      <c r="L99" s="54"/>
+      <c r="M99" s="54"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
       <c r="P99" s="8"/>
@@ -3433,20 +3488,20 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
-      <c r="B100" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="C100" s="71"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="72"/>
-      <c r="F100" s="72"/>
-      <c r="G100" s="73"/>
-      <c r="H100" s="72"/>
-      <c r="I100" s="72"/>
-      <c r="J100" s="72"/>
-      <c r="K100" s="72"/>
-      <c r="L100" s="72"/>
-      <c r="M100" s="72"/>
+      <c r="B100" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="53"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="54"/>
+      <c r="F100" s="54"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="54"/>
+      <c r="I100" s="54"/>
+      <c r="J100" s="54"/>
+      <c r="K100" s="54"/>
+      <c r="L100" s="54"/>
+      <c r="M100" s="54"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="8"/>
@@ -3456,20 +3511,20 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
-      <c r="B101" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="C101" s="71"/>
-      <c r="D101" s="72"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="73"/>
-      <c r="H101" s="72"/>
-      <c r="I101" s="72"/>
-      <c r="J101" s="72"/>
-      <c r="K101" s="72"/>
-      <c r="L101" s="72"/>
-      <c r="M101" s="72"/>
+      <c r="B101" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" s="53"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="54"/>
+      <c r="J101" s="54"/>
+      <c r="K101" s="54"/>
+      <c r="L101" s="54"/>
+      <c r="M101" s="54"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
       <c r="P101" s="8"/>
@@ -3479,20 +3534,20 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
-      <c r="B102" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="C102" s="71"/>
-      <c r="D102" s="72"/>
-      <c r="E102" s="72"/>
-      <c r="F102" s="72"/>
-      <c r="G102" s="73"/>
-      <c r="H102" s="72"/>
-      <c r="I102" s="72"/>
-      <c r="J102" s="72"/>
-      <c r="K102" s="72"/>
-      <c r="L102" s="72"/>
-      <c r="M102" s="72"/>
+      <c r="B102" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C102" s="53"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="54"/>
+      <c r="I102" s="54"/>
+      <c r="J102" s="54"/>
+      <c r="K102" s="54"/>
+      <c r="L102" s="54"/>
+      <c r="M102" s="54"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
       <c r="P102" s="8"/>
@@ -3502,7 +3557,7 @@
     </row>
     <row r="103" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
-      <c r="B103" s="63"/>
+      <c r="B103" s="48"/>
       <c r="C103" s="14"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -3523,7 +3578,7 @@
     </row>
     <row r="104" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
-      <c r="B104" s="64" t="s">
+      <c r="B104" s="49" t="s">
         <v>48</v>
       </c>
       <c r="C104" s="14"/>
@@ -3546,7 +3601,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
-      <c r="B105" s="65"/>
+      <c r="B105" s="50"/>
       <c r="C105" s="14"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -3567,7 +3622,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
-      <c r="B106" s="65"/>
+      <c r="B106" s="50"/>
       <c r="C106" s="14"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
@@ -3586,51 +3641,51 @@
       <c r="R106" s="8"/>
       <c r="S106" s="8"/>
     </row>
-    <row r="107" spans="1:19" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="51"/>
-      <c r="B107" s="66"/>
-      <c r="C107" s="52"/>
-      <c r="D107" s="53"/>
-      <c r="E107" s="53"/>
-      <c r="F107" s="53"/>
-      <c r="G107" s="54"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="53"/>
-      <c r="J107" s="53"/>
-      <c r="K107" s="53"/>
-      <c r="L107" s="53"/>
-      <c r="M107" s="53"/>
-      <c r="N107" s="55"/>
-      <c r="O107" s="55"/>
-      <c r="P107" s="55"/>
-      <c r="Q107" s="55"/>
-      <c r="R107" s="55"/>
-      <c r="S107" s="55"/>
-    </row>
-    <row r="108" spans="1:19" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="51"/>
-      <c r="B108" s="66"/>
-      <c r="C108" s="52"/>
-      <c r="D108" s="53"/>
-      <c r="E108" s="53"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="54"/>
-      <c r="H108" s="53"/>
-      <c r="I108" s="53"/>
-      <c r="J108" s="53"/>
-      <c r="K108" s="53"/>
-      <c r="L108" s="53"/>
-      <c r="M108" s="53"/>
-      <c r="N108" s="55"/>
-      <c r="O108" s="55"/>
-      <c r="P108" s="55"/>
-      <c r="Q108" s="55"/>
-      <c r="R108" s="55"/>
-      <c r="S108" s="55"/>
+    <row r="107" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="36"/>
+      <c r="B107" s="51"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="38"/>
+      <c r="J107" s="38"/>
+      <c r="K107" s="38"/>
+      <c r="L107" s="38"/>
+      <c r="M107" s="38"/>
+      <c r="N107" s="40"/>
+      <c r="O107" s="40"/>
+      <c r="P107" s="40"/>
+      <c r="Q107" s="40"/>
+      <c r="R107" s="40"/>
+      <c r="S107" s="40"/>
+    </row>
+    <row r="108" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="36"/>
+      <c r="B108" s="51"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="38"/>
+      <c r="J108" s="38"/>
+      <c r="K108" s="38"/>
+      <c r="L108" s="38"/>
+      <c r="M108" s="38"/>
+      <c r="N108" s="40"/>
+      <c r="O108" s="40"/>
+      <c r="P108" s="40"/>
+      <c r="Q108" s="40"/>
+      <c r="R108" s="40"/>
+      <c r="S108" s="40"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
-      <c r="B109" s="65"/>
+      <c r="B109" s="50"/>
       <c r="C109" s="14"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
@@ -3651,7 +3706,7 @@
     </row>
     <row r="110" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
-      <c r="B110" s="65"/>
+      <c r="B110" s="50"/>
       <c r="C110" s="14"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
@@ -3672,8 +3727,8 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
-      <c r="B111" s="67" t="s">
-        <v>89</v>
+      <c r="B111" s="56" t="s">
+        <v>85</v>
       </c>
       <c r="C111" s="14"/>
       <c r="D111" s="9"/>
@@ -3695,7 +3750,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
-      <c r="B112" s="68"/>
+      <c r="B112" s="57"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
@@ -3716,7 +3771,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
-      <c r="B113" s="68"/>
+      <c r="B113" s="57"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -3737,7 +3792,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
-      <c r="B114" s="68"/>
+      <c r="B114" s="57"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -3758,7 +3813,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
-      <c r="B115" s="68"/>
+      <c r="B115" s="57"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -3779,7 +3834,7 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
-      <c r="B116" s="68"/>
+      <c r="B116" s="57"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -3800,7 +3855,7 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
-      <c r="B117" s="68"/>
+      <c r="B117" s="57"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -3821,7 +3876,7 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
-      <c r="B118" s="68"/>
+      <c r="B118" s="57"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
@@ -3842,7 +3897,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
-      <c r="B119" s="68"/>
+      <c r="B119" s="57"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
@@ -3863,7 +3918,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
-      <c r="B120" s="68"/>
+      <c r="B120" s="57"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
@@ -3884,7 +3939,7 @@
     </row>
     <row r="121" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8"/>
-      <c r="B121" s="69"/>
+      <c r="B121" s="58"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
@@ -3905,7 +3960,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
-      <c r="B122" s="59"/>
+      <c r="B122" s="44"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
@@ -3926,7 +3981,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
-      <c r="B123" s="59"/>
+      <c r="B123" s="44"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
@@ -3947,7 +4002,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
-      <c r="B124" s="59"/>
+      <c r="B124" s="44"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
@@ -3968,7 +4023,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
-      <c r="B125" s="59"/>
+      <c r="B125" s="44"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -3989,7 +4044,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
-      <c r="B126" s="59"/>
+      <c r="B126" s="44"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
@@ -4010,6 +4065,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G54"/>
+    <mergeCell ref="G55:G56"/>
     <mergeCell ref="B111:B121"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="C3:G3"/>
@@ -4026,10 +4085,6 @@
     <mergeCell ref="G35:G37"/>
     <mergeCell ref="G57:G59"/>
     <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G54"/>
-    <mergeCell ref="G55:G56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
